--- a/TaskProject/files/Tasks.xlsx
+++ b/TaskProject/files/Tasks.xlsx
@@ -146,6 +146,48 @@
   </x:si>
   <x:si>
     <x:t>1/18/2024 3:32:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>title one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;h1&gt;here is the description &lt;/h1&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Imohammed@master-works.sa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/18/2024 4:36:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/18/2024 4:55:19 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/18/2024 4:57:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">title of the task </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">here is the discription </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/18/2024 5:02:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>title of task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>here is the task description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/18/2024 5:05:44 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isamil.sudani2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/18/2024 5:09:15 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -209,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0">
-  <x:autoFilter ref="A1:F17"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0">
+  <x:autoFilter ref="A1:F23"/>
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="Id"/>
     <x:tableColumn id="2" name="Title"/>
@@ -511,7 +553,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F17"/>
+  <x:dimension ref="A1:F23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -854,6 +896,126 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
